--- a/PPAP MASTER File (2023) (1).xlsx
+++ b/PPAP MASTER File (2023) (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiray\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337AB1CA-78C8-4E10-B54D-75392B0C6277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD383211-DAC2-410A-A2A4-0728543F88FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PPAP 2023" sheetId="8" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="370">
   <si>
     <t>Initial PPAP</t>
   </si>
@@ -1195,9 +1195,6 @@
   </si>
   <si>
     <t>Cliente "Littlefuse" no esta en la base de datos</t>
-  </si>
-  <si>
-    <t>No tiene Customer PPAP Number</t>
   </si>
   <si>
     <t>Cual CUS es Bizlink - Mexico?</t>
@@ -1307,7 +1304,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1365,12 +1362,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,7 +1556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1920,7 +1911,6 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2257,12 +2247,12 @@
   </sheetPr>
   <dimension ref="A1:AF181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="58" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F171" sqref="F171"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="60" zoomScaleNormal="58" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF158" sqref="AF158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.90625" style="5" customWidth="1"/>
@@ -2306,34 +2296,34 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
-      <c r="M1" s="165" t="s">
+      <c r="M1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="166"/>
-      <c r="O1" s="165" t="s">
+      <c r="N1" s="165"/>
+      <c r="O1" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="167"/>
-      <c r="S1" s="168">
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="167">
         <v>2021</v>
       </c>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="170"/>
-      <c r="W1" s="171">
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="169"/>
+      <c r="W1" s="170">
         <v>2022</v>
       </c>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="171">
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="170">
         <v>2023</v>
       </c>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="173"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
+      <c r="AD1" s="172"/>
     </row>
     <row r="2" spans="1:32" s="9" customFormat="1" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="133" t="s">
@@ -2727,9 +2717,7 @@
       <c r="AD7" s="41">
         <v>45002</v>
       </c>
-      <c r="AF7" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF7" s="163"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
@@ -2821,9 +2809,7 @@
         <v>45246</v>
       </c>
       <c r="AD8" s="19"/>
-      <c r="AF8" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF8" s="163"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="62" t="s">
@@ -2873,9 +2859,7 @@
         <v>45184</v>
       </c>
       <c r="AD9" s="19"/>
-      <c r="AF9" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF9" s="163"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
@@ -3122,9 +3106,7 @@
       <c r="AD12" s="41">
         <v>45222</v>
       </c>
-      <c r="AF12" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF12" s="163"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="62" t="s">
@@ -3182,9 +3164,7 @@
         <v>45184</v>
       </c>
       <c r="AD13" s="48"/>
-      <c r="AF13" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF13" s="163"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="64" t="s">
@@ -3273,9 +3253,7 @@
       <c r="AD14" s="41">
         <v>44953</v>
       </c>
-      <c r="AF14" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF14" s="163"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="64" t="s">
@@ -3353,9 +3331,7 @@
       <c r="AD15" s="144">
         <v>45208</v>
       </c>
-      <c r="AF15" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF15" s="163"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
@@ -3440,9 +3416,7 @@
       </c>
       <c r="AC16" s="3"/>
       <c r="AD16" s="12"/>
-      <c r="AF16" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF16" s="163"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="62" t="s">
@@ -3534,9 +3508,7 @@
         <v>45133</v>
       </c>
       <c r="AD17" s="19"/>
-      <c r="AF17" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF17" s="163"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="62" t="s">
@@ -3613,7 +3585,7 @@
       </c>
       <c r="AD18" s="19"/>
       <c r="AF18" s="161" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
@@ -4007,9 +3979,7 @@
       <c r="AD23" s="41">
         <v>45086</v>
       </c>
-      <c r="AF23" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF23" s="163"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="62" t="s">
@@ -4064,9 +4034,7 @@
       <c r="AB24" s="26"/>
       <c r="AC24" s="26"/>
       <c r="AD24" s="19"/>
-      <c r="AF24" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF24" s="163"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="62" t="s">
@@ -4119,7 +4087,7 @@
       <c r="AC25" s="14"/>
       <c r="AD25" s="19"/>
       <c r="AF25" s="161" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.3">
@@ -4318,9 +4286,7 @@
       <c r="AD28" s="41">
         <v>45188</v>
       </c>
-      <c r="AF28" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF28" s="163"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="62" t="s">
@@ -4503,9 +4469,7 @@
         <v>45246</v>
       </c>
       <c r="AD30" s="19"/>
-      <c r="AF30" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF30" s="163"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="64" t="s">
@@ -4592,9 +4556,7 @@
       <c r="AD31" s="41">
         <v>45076</v>
       </c>
-      <c r="AF31" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF31" s="163"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" s="62" t="s">
@@ -4741,9 +4703,7 @@
       <c r="AD33" s="41">
         <v>45085</v>
       </c>
-      <c r="AF33" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF33" s="163"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" s="64" t="s">
@@ -4826,9 +4786,7 @@
       <c r="AD34" s="41">
         <v>44953</v>
       </c>
-      <c r="AF34" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF34" s="163"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" s="62" t="s">
@@ -4889,7 +4847,7 @@
       </c>
       <c r="AD35" s="19"/>
       <c r="AF35" s="161" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.3">
@@ -5170,9 +5128,7 @@
       <c r="AD39" s="41">
         <v>45184</v>
       </c>
-      <c r="AF39" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF39" s="163"/>
     </row>
     <row r="40" spans="1:32" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="64" t="s">
@@ -5245,9 +5201,7 @@
       <c r="AD40" s="41">
         <v>45000</v>
       </c>
-      <c r="AF40" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF40" s="163"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" s="64" t="s">
@@ -5398,9 +5352,7 @@
       <c r="AD42" s="41">
         <v>45222</v>
       </c>
-      <c r="AF42" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF42" s="163"/>
     </row>
     <row r="43" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="62" t="s">
@@ -5494,9 +5446,7 @@
         <v>45075</v>
       </c>
       <c r="AD43" s="19"/>
-      <c r="AF43" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF43" s="163"/>
     </row>
     <row r="44" spans="1:32" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="64" t="s">
@@ -5672,7 +5622,7 @@
       </c>
       <c r="AD46" s="19"/>
       <c r="AF46" s="161" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5729,9 +5679,7 @@
       <c r="AD47" s="41">
         <v>45082</v>
       </c>
-      <c r="AF47" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF47" s="163"/>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" s="62" t="s">
@@ -5818,9 +5766,7 @@
         <v>45183</v>
       </c>
       <c r="AD48" s="19"/>
-      <c r="AF48" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF48" s="163"/>
     </row>
     <row r="49" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="62" t="s">
@@ -5891,9 +5837,7 @@
         <v>45075</v>
       </c>
       <c r="AD49" s="19"/>
-      <c r="AF49" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF49" s="163"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" s="62" t="s">
@@ -5965,9 +5909,7 @@
         <v>45075</v>
       </c>
       <c r="AD50" s="19"/>
-      <c r="AF50" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF50" s="163"/>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" s="64" t="s">
@@ -6037,7 +5979,7 @@
         <v>45208</v>
       </c>
       <c r="AF51" s="161" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.3">
@@ -6131,9 +6073,7 @@
         <v>45075</v>
       </c>
       <c r="AD52" s="19"/>
-      <c r="AF52" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF52" s="163"/>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53" s="62" t="s">
@@ -6320,9 +6260,7 @@
       </c>
       <c r="AC55" s="3"/>
       <c r="AD55" s="12"/>
-      <c r="AF55" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF55" s="163"/>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56" s="64" t="s">
@@ -6388,9 +6326,7 @@
       <c r="AD56" s="41">
         <v>45070</v>
       </c>
-      <c r="AF56" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF56" s="163"/>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" s="64" t="s">
@@ -6538,9 +6474,7 @@
         <v>45246</v>
       </c>
       <c r="AD58" s="19"/>
-      <c r="AF58" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF58" s="163"/>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59" s="64" t="s">
@@ -6602,9 +6536,7 @@
       <c r="AD59" s="41">
         <v>45070</v>
       </c>
-      <c r="AF59" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF59" s="163"/>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A60" s="62" t="s">
@@ -6695,9 +6627,7 @@
         <v>45184</v>
       </c>
       <c r="AD60" s="19"/>
-      <c r="AF60" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF60" s="163"/>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A61" s="62" t="s">
@@ -6772,7 +6702,7 @@
       </c>
       <c r="AD61" s="19"/>
       <c r="AF61" s="161" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.3">
@@ -6847,9 +6777,7 @@
         <v>45075</v>
       </c>
       <c r="AD62" s="48"/>
-      <c r="AF62" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF62" s="163"/>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A63" s="64" t="s">
@@ -6934,9 +6862,7 @@
       <c r="AD63" s="41">
         <v>44994</v>
       </c>
-      <c r="AF63" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF63" s="163"/>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A64" s="64" t="s">
@@ -7056,9 +6982,7 @@
         <v>45184</v>
       </c>
       <c r="AD65" s="48"/>
-      <c r="AF65" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF65" s="163"/>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A66" s="62" t="s">
@@ -7212,9 +7136,7 @@
       <c r="AD67" s="41">
         <v>45086</v>
       </c>
-      <c r="AF67" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF67" s="163"/>
     </row>
     <row r="68" spans="1:32" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="51" t="s">
@@ -7284,9 +7206,7 @@
       <c r="AD68" s="41">
         <v>45070</v>
       </c>
-      <c r="AF68" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF68" s="163"/>
     </row>
     <row r="69" spans="1:32" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="62" t="s">
@@ -7379,9 +7299,7 @@
         <v>45246</v>
       </c>
       <c r="AD69" s="19"/>
-      <c r="AF69" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF69" s="163"/>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A70" s="64" t="s">
@@ -7465,9 +7383,7 @@
       <c r="AD70" s="144">
         <v>45112</v>
       </c>
-      <c r="AF70" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF70" s="163"/>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A71" s="62" t="s">
@@ -7559,9 +7475,7 @@
         <v>45184</v>
       </c>
       <c r="AD71" s="48"/>
-      <c r="AF71" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF71" s="163"/>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A72" s="64" t="s">
@@ -7744,9 +7658,7 @@
         <v>45000</v>
       </c>
       <c r="AD73" s="19"/>
-      <c r="AF73" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF73" s="163"/>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A74" s="62" t="s">
@@ -8011,9 +7923,7 @@
         <v>45060</v>
       </c>
       <c r="AD77" s="19"/>
-      <c r="AF77" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF77" s="163"/>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A78" s="62" t="s">
@@ -8183,9 +8093,7 @@
       <c r="AB80" s="26"/>
       <c r="AC80" s="26"/>
       <c r="AD80" s="19"/>
-      <c r="AF80" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF80" s="163"/>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A81" s="64" t="s">
@@ -8255,9 +8163,7 @@
       <c r="AD81" s="41">
         <v>45222</v>
       </c>
-      <c r="AF81" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF81" s="163"/>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A82" s="64" t="s">
@@ -8326,9 +8232,7 @@
       <c r="AD82" s="41">
         <v>45028</v>
       </c>
-      <c r="AF82" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF82" s="163"/>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A83" s="62" t="s">
@@ -8417,7 +8321,7 @@
       </c>
       <c r="AD83" s="19"/>
       <c r="AF83" s="161" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.3">
@@ -8509,9 +8413,7 @@
         <v>45075</v>
       </c>
       <c r="AD84" s="19"/>
-      <c r="AF84" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF84" s="163"/>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A85" s="64" t="s">
@@ -8594,9 +8496,7 @@
       <c r="AD85" s="41">
         <v>44953</v>
       </c>
-      <c r="AF85" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF85" s="163"/>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A86" s="64" t="s">
@@ -8656,7 +8556,7 @@
         <v>279</v>
       </c>
       <c r="AF86" s="161" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.3">
@@ -8719,7 +8619,7 @@
       </c>
       <c r="AD87" s="19"/>
       <c r="AF87" s="161" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
@@ -8795,9 +8695,7 @@
       <c r="AD88" s="41">
         <v>45173</v>
       </c>
-      <c r="AF88" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF88" s="163"/>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A89" s="64" t="s">
@@ -8968,9 +8866,7 @@
         <v>45246</v>
       </c>
       <c r="AD91" s="19"/>
-      <c r="AF91" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF91" s="163"/>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A92" s="64" t="s">
@@ -9033,7 +8929,7 @@
         <v>45224</v>
       </c>
       <c r="AF92" s="161" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.3">
@@ -9102,9 +8998,7 @@
         <v>45184</v>
       </c>
       <c r="AD93" s="19"/>
-      <c r="AF93" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF93" s="163"/>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A94" s="62" t="s">
@@ -9257,7 +9151,7 @@
         <v>45224</v>
       </c>
       <c r="AF95" s="161" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.3">
@@ -9416,9 +9310,7 @@
         <v>45000</v>
       </c>
       <c r="AD97" s="19"/>
-      <c r="AF97" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF97" s="163"/>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A98" s="64" t="s">
@@ -9515,9 +9407,7 @@
       <c r="AD98" s="41">
         <v>45222</v>
       </c>
-      <c r="AF98" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF98" s="163"/>
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A99" s="62" t="s">
@@ -9611,9 +9501,7 @@
         <v>45233</v>
       </c>
       <c r="AD99" s="19"/>
-      <c r="AF99" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF99" s="163"/>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A100" s="62" t="s">
@@ -9774,9 +9662,7 @@
       <c r="AD101" s="41">
         <v>45117</v>
       </c>
-      <c r="AF101" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF101" s="163"/>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A102" s="64" t="s">
@@ -9901,9 +9787,7 @@
       <c r="AD103" s="41">
         <v>45076</v>
       </c>
-      <c r="AF103" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF103" s="163"/>
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A104" s="64" t="s">
@@ -10191,9 +10075,7 @@
       <c r="AD107" s="41">
         <v>44953</v>
       </c>
-      <c r="AF107" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF107" s="163"/>
     </row>
     <row r="108" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="64" t="s">
@@ -10260,9 +10142,7 @@
       <c r="AD108" s="41">
         <v>45076</v>
       </c>
-      <c r="AF108" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF108" s="163"/>
     </row>
     <row r="109" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="62" t="s">
@@ -10336,7 +10216,7 @@
       </c>
       <c r="AD109" s="19"/>
       <c r="AF109" s="161" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="110" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10430,9 +10310,7 @@
         <v>45184</v>
       </c>
       <c r="AD110" s="48"/>
-      <c r="AF110" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF110" s="163"/>
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A111" s="64" t="s">
@@ -10494,9 +10372,7 @@
       <c r="AD111" s="40">
         <v>45105</v>
       </c>
-      <c r="AF111" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF111" s="163"/>
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A112" s="64" t="s">
@@ -10583,9 +10459,7 @@
       <c r="AD112" s="40">
         <v>45076</v>
       </c>
-      <c r="AF112" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF112" s="163"/>
     </row>
     <row r="113" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A113" s="64" t="s">
@@ -10670,9 +10544,7 @@
       <c r="AD113" s="41">
         <v>45076</v>
       </c>
-      <c r="AF113" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF113" s="163"/>
     </row>
     <row r="114" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A114" s="62" t="s">
@@ -10792,9 +10664,7 @@
       <c r="AD115" s="41">
         <v>45070</v>
       </c>
-      <c r="AF115" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF115" s="163"/>
     </row>
     <row r="116" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A116" s="62" t="s">
@@ -10881,9 +10751,7 @@
         <v>45183</v>
       </c>
       <c r="AD116" s="19"/>
-      <c r="AF116" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF116" s="163"/>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A117" s="64" t="s">
@@ -10965,9 +10833,7 @@
       <c r="AD117" s="41">
         <v>45184</v>
       </c>
-      <c r="AF117" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF117" s="163"/>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A118" s="62" t="s">
@@ -11044,9 +10910,7 @@
         <v>45000</v>
       </c>
       <c r="AD118" s="19"/>
-      <c r="AF118" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF118" s="163"/>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A119" s="15" t="s">
@@ -11158,9 +11022,7 @@
         <v>45183</v>
       </c>
       <c r="AD120" s="48"/>
-      <c r="AF120" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF120" s="163"/>
     </row>
     <row r="121" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A121" s="64" t="s">
@@ -11309,9 +11171,7 @@
       <c r="AD122" s="41">
         <v>45076</v>
       </c>
-      <c r="AF122" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF122" s="163"/>
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A123" s="62" t="s">
@@ -11468,9 +11328,7 @@
         <v>45245</v>
       </c>
       <c r="AD124" s="19"/>
-      <c r="AF124" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF124" s="163"/>
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A125" s="64" t="s">
@@ -11662,9 +11520,7 @@
         <v>45056</v>
       </c>
       <c r="AD127" s="26"/>
-      <c r="AF127" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF127" s="163"/>
     </row>
     <row r="128" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A128" s="62" t="s">
@@ -11794,9 +11650,7 @@
         <v>45183</v>
       </c>
       <c r="AD129" s="26"/>
-      <c r="AF129" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF129" s="163"/>
     </row>
     <row r="130" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A130" s="64" t="s">
@@ -11881,9 +11735,7 @@
       <c r="AD130" s="40">
         <v>45083</v>
       </c>
-      <c r="AF130" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF130" s="163"/>
     </row>
     <row r="131" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A131" s="45" t="s">
@@ -11959,9 +11811,7 @@
       <c r="AD131" s="40">
         <v>45076</v>
       </c>
-      <c r="AF131" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF131" s="163"/>
     </row>
     <row r="132" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A132" s="62" t="s">
@@ -12053,9 +11903,7 @@
         <v>45184</v>
       </c>
       <c r="AD132" s="26"/>
-      <c r="AF132" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF132" s="163"/>
     </row>
     <row r="133" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A133" s="62" t="s">
@@ -12136,9 +11984,7 @@
         <v>45246</v>
       </c>
       <c r="AD133" s="14"/>
-      <c r="AF133" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF133" s="163"/>
     </row>
     <row r="134" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A134" s="62" t="s">
@@ -12262,9 +12108,7 @@
       <c r="AB135" s="51"/>
       <c r="AC135" s="51"/>
       <c r="AD135" s="51"/>
-      <c r="AF135" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF135" s="163"/>
     </row>
     <row r="136" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A136" s="64" t="s">
@@ -12442,7 +12286,7 @@
         <v>45224</v>
       </c>
       <c r="AF138" s="161" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="139" spans="1:32" x14ac:dyDescent="0.3">
@@ -12530,9 +12374,7 @@
         <v>45075</v>
       </c>
       <c r="AD139" s="26"/>
-      <c r="AF139" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF139" s="163"/>
     </row>
     <row r="140" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A140" s="62" t="s">
@@ -12623,7 +12465,7 @@
       </c>
       <c r="AD140" s="26"/>
       <c r="AF140" s="161" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="141" spans="1:32" x14ac:dyDescent="0.3">
@@ -12743,9 +12585,7 @@
         <v>45184</v>
       </c>
       <c r="AD142" s="26"/>
-      <c r="AF142" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF142" s="163"/>
     </row>
     <row r="143" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A143" s="64" t="s">
@@ -12813,9 +12653,7 @@
       <c r="AD143" s="40">
         <v>45222</v>
       </c>
-      <c r="AF143" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF143" s="163"/>
     </row>
     <row r="144" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A144" s="64" t="s">
@@ -12869,7 +12707,7 @@
       <c r="AC144" s="51"/>
       <c r="AD144" s="51"/>
       <c r="AF144" s="161" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="145" spans="1:32" x14ac:dyDescent="0.3">
@@ -12980,9 +12818,7 @@
       <c r="AB146" s="51"/>
       <c r="AC146" s="51"/>
       <c r="AD146" s="51"/>
-      <c r="AF146" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF146" s="163"/>
     </row>
     <row r="147" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A147" s="15"/>
@@ -13202,9 +13038,7 @@
         <v>45131</v>
       </c>
       <c r="AD150" s="26"/>
-      <c r="AF150" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF150" s="163"/>
     </row>
     <row r="151" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A151" s="62" t="s">
@@ -13392,9 +13226,7 @@
         <v>45106</v>
       </c>
       <c r="AD153" s="26"/>
-      <c r="AF153" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF153" s="163"/>
     </row>
     <row r="154" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B154" s="5" t="s">
@@ -13954,9 +13786,7 @@
       <c r="AB164" s="51"/>
       <c r="AC164" s="51"/>
       <c r="AD164" s="51"/>
-      <c r="AF164" s="164" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF164" s="163"/>
     </row>
     <row r="165" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A165" s="15" t="s">
@@ -13994,7 +13824,7 @@
       </c>
       <c r="AB165" s="3"/>
       <c r="AF165" s="161" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="166" spans="1:32" x14ac:dyDescent="0.3">
@@ -14014,7 +13844,7 @@
         <v>4</v>
       </c>
       <c r="AF166" s="161" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="167" spans="1:32" x14ac:dyDescent="0.3">
@@ -14061,7 +13891,7 @@
       </c>
       <c r="AD167" s="26"/>
       <c r="AF167" s="161" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="168" spans="1:32" x14ac:dyDescent="0.3">
@@ -14084,7 +13914,7 @@
         <v>4</v>
       </c>
       <c r="AF168" s="161" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="169" spans="1:32" x14ac:dyDescent="0.3">
@@ -14107,7 +13937,7 @@
         <v>4</v>
       </c>
       <c r="AF169" s="161" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="170" spans="1:32" x14ac:dyDescent="0.3">
@@ -14130,7 +13960,7 @@
         <v>4</v>
       </c>
       <c r="AF170" s="161" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="171" spans="1:32" x14ac:dyDescent="0.3">
@@ -14150,7 +13980,7 @@
         <v>75</v>
       </c>
       <c r="AF171" s="161" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="172" spans="1:32" x14ac:dyDescent="0.3">
@@ -14194,7 +14024,7 @@
       <selection pane="bottomLeft" activeCell="L138" sqref="L138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.1796875" style="2" customWidth="1"/>
     <col min="2" max="2" width="33" style="5" customWidth="1"/>
@@ -14236,29 +14066,29 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
-      <c r="M1" s="165" t="s">
+      <c r="M1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="166"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="165" t="s">
+      <c r="N1" s="165"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="167"/>
-      <c r="T1" s="168">
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="167">
         <v>2021</v>
       </c>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="170"/>
-      <c r="X1" s="171">
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="169"/>
+      <c r="X1" s="170">
         <v>2022</v>
       </c>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="173"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="172"/>
     </row>
     <row r="2" spans="1:27" s="9" customFormat="1" ht="84.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
@@ -23868,7 +23698,7 @@
       <selection pane="bottomLeft" activeCell="AC3" sqref="AC3:AC4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.7265625" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.26953125" style="139" hidden="1" customWidth="1"/>
@@ -23912,27 +23742,27 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
-      <c r="N1" s="165" t="s">
+      <c r="N1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="166"/>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="171" t="s">
+      <c r="O1" s="165"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="172"/>
-      <c r="S1" s="173"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="172"/>
       <c r="T1" s="81"/>
-      <c r="U1" s="171">
+      <c r="U1" s="170">
         <v>2021</v>
       </c>
-      <c r="V1" s="172"/>
-      <c r="W1" s="173"/>
-      <c r="Y1" s="171">
+      <c r="V1" s="171"/>
+      <c r="W1" s="172"/>
+      <c r="Y1" s="170">
         <v>2022</v>
       </c>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="173"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="172"/>
     </row>
     <row r="2" spans="1:29" s="9" customFormat="1" ht="238.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
@@ -31947,6 +31777,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="31bae7fc-a932-48d2-a4fd-52f4a9d31701" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100151DCF064A99D441887C557583945FE2" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="37471ec268efa06fb30c57d33270148f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446" xmlns:ns3="31bae7fc-a932-48d2-a4fd-52f4a9d31701" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46658c2591ee73c71b541e67d9286acd" ns2:_="" ns3:_="">
     <xsd:import namespace="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446"/>
@@ -32147,27 +31997,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="31bae7fc-a932-48d2-a4fd-52f4a9d31701" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EE3C7B-0018-43F4-8F80-86D6B3D880A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED98089-806C-4E4C-8229-E4169DDBEB26}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="31bae7fc-a932-48d2-a4fd-52f4a9d31701"/>
+    <ds:schemaRef ds:uri="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E994A4C0-B8D6-4654-896B-8A5B6E995AE8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32184,23 +32033,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED98089-806C-4E4C-8229-E4169DDBEB26}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="31bae7fc-a932-48d2-a4fd-52f4a9d31701"/>
-    <ds:schemaRef ds:uri="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EE3C7B-0018-43F4-8F80-86D6B3D880A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/PPAP MASTER File (2023) (1).xlsx
+++ b/PPAP MASTER File (2023) (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiray\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD383211-DAC2-410A-A2A4-0728543F88FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B26EEAD-A037-46E0-A127-7E26E981B00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PPAP 2023" sheetId="8" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="369">
   <si>
     <t>Initial PPAP</t>
   </si>
@@ -1189,9 +1189,6 @@
   </si>
   <si>
     <t>10173694-001</t>
-  </si>
-  <si>
-    <t>Cliente "A&amp;A" no esta en la base de datos</t>
   </si>
   <si>
     <t>Cliente "Littlefuse" no esta en la base de datos</t>
@@ -1556,7 +1553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1938,6 +1935,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2247,12 +2245,12 @@
   </sheetPr>
   <dimension ref="A1:AF181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="60" zoomScaleNormal="58" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF158" sqref="AF158"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="40" zoomScaleNormal="58" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF77" sqref="AF77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.90625" style="5" customWidth="1"/>
@@ -2490,9 +2488,7 @@
         <v>45075</v>
       </c>
       <c r="AD3" s="158"/>
-      <c r="AF3" s="161" t="s">
-        <v>358</v>
-      </c>
+      <c r="AF3" s="173"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="64" t="s">
@@ -3584,9 +3580,7 @@
         <v>45075</v>
       </c>
       <c r="AD18" s="19"/>
-      <c r="AF18" s="161" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF18" s="173"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="64" t="s">
@@ -4087,7 +4081,7 @@
       <c r="AC25" s="14"/>
       <c r="AD25" s="19"/>
       <c r="AF25" s="161" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.3">
@@ -4224,9 +4218,7 @@
         <v>45181</v>
       </c>
       <c r="AD27" s="19"/>
-      <c r="AF27" s="161" t="s">
-        <v>357</v>
-      </c>
+      <c r="AF27" s="173"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="64" t="s">
@@ -4613,7 +4605,7 @@
       </c>
       <c r="AD32" s="19"/>
       <c r="AF32" s="161" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.3">
@@ -4847,7 +4839,7 @@
       </c>
       <c r="AD35" s="19"/>
       <c r="AF35" s="161" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.3">
@@ -5062,9 +5054,7 @@
         <v>45092</v>
       </c>
       <c r="AD38" s="26"/>
-      <c r="AF38" s="161" t="s">
-        <v>357</v>
-      </c>
+      <c r="AF38" s="173"/>
     </row>
     <row r="39" spans="1:32" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="64" t="s">
@@ -5622,7 +5612,7 @@
       </c>
       <c r="AD46" s="19"/>
       <c r="AF46" s="161" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5979,7 +5969,7 @@
         <v>45208</v>
       </c>
       <c r="AF51" s="161" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.3">
@@ -6701,9 +6691,7 @@
         <v>45075</v>
       </c>
       <c r="AD61" s="19"/>
-      <c r="AF61" s="161" t="s">
-        <v>359</v>
-      </c>
+      <c r="AF61" s="173"/>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A62" s="62" t="s">
@@ -7049,9 +7037,7 @@
         <v>45184</v>
       </c>
       <c r="AD66" s="48"/>
-      <c r="AF66" s="161" t="s">
-        <v>358</v>
-      </c>
+      <c r="AF66" s="173"/>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A67" s="64" t="s">
@@ -7777,9 +7763,7 @@
       <c r="AB75" s="26"/>
       <c r="AC75" s="26"/>
       <c r="AD75" s="19"/>
-      <c r="AF75" s="161" t="s">
-        <v>358</v>
-      </c>
+      <c r="AF75" s="173"/>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A76" s="26" t="s">
@@ -7843,9 +7827,7 @@
         <v>45060</v>
       </c>
       <c r="AD76" s="19"/>
-      <c r="AF76" s="161" t="s">
-        <v>358</v>
-      </c>
+      <c r="AF76" s="173"/>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A77" s="26" t="s">
@@ -8321,7 +8303,7 @@
       </c>
       <c r="AD83" s="19"/>
       <c r="AF83" s="161" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.3">
@@ -8556,7 +8538,7 @@
         <v>279</v>
       </c>
       <c r="AF86" s="161" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.3">
@@ -8619,7 +8601,7 @@
       </c>
       <c r="AD87" s="19"/>
       <c r="AF87" s="161" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
@@ -8929,7 +8911,7 @@
         <v>45224</v>
       </c>
       <c r="AF92" s="161" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.3">
@@ -9151,7 +9133,7 @@
         <v>45224</v>
       </c>
       <c r="AF95" s="161" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.3">
@@ -9569,7 +9551,7 @@
       </c>
       <c r="AD100" s="48"/>
       <c r="AF100" s="161" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.3">
@@ -10216,7 +10198,7 @@
       </c>
       <c r="AD109" s="19"/>
       <c r="AF109" s="161" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="110" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12286,7 +12268,7 @@
         <v>45224</v>
       </c>
       <c r="AF138" s="161" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="139" spans="1:32" x14ac:dyDescent="0.3">
@@ -12465,7 +12447,7 @@
       </c>
       <c r="AD140" s="26"/>
       <c r="AF140" s="161" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="141" spans="1:32" x14ac:dyDescent="0.3">
@@ -12707,7 +12689,7 @@
       <c r="AC144" s="51"/>
       <c r="AD144" s="51"/>
       <c r="AF144" s="161" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="145" spans="1:32" x14ac:dyDescent="0.3">
@@ -13824,7 +13806,7 @@
       </c>
       <c r="AB165" s="3"/>
       <c r="AF165" s="161" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="166" spans="1:32" x14ac:dyDescent="0.3">
@@ -13844,7 +13826,7 @@
         <v>4</v>
       </c>
       <c r="AF166" s="161" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="167" spans="1:32" x14ac:dyDescent="0.3">
@@ -13891,7 +13873,7 @@
       </c>
       <c r="AD167" s="26"/>
       <c r="AF167" s="161" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="168" spans="1:32" x14ac:dyDescent="0.3">
@@ -13914,7 +13896,7 @@
         <v>4</v>
       </c>
       <c r="AF168" s="161" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="169" spans="1:32" x14ac:dyDescent="0.3">
@@ -13937,7 +13919,7 @@
         <v>4</v>
       </c>
       <c r="AF169" s="161" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="170" spans="1:32" x14ac:dyDescent="0.3">
@@ -13960,7 +13942,7 @@
         <v>4</v>
       </c>
       <c r="AF170" s="161" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="171" spans="1:32" x14ac:dyDescent="0.3">
@@ -13980,7 +13962,7 @@
         <v>75</v>
       </c>
       <c r="AF171" s="161" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="172" spans="1:32" x14ac:dyDescent="0.3">
@@ -14024,7 +14006,7 @@
       <selection pane="bottomLeft" activeCell="L138" sqref="L138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.1796875" style="2" customWidth="1"/>
     <col min="2" max="2" width="33" style="5" customWidth="1"/>
@@ -23698,7 +23680,7 @@
       <selection pane="bottomLeft" activeCell="AC3" sqref="AC3:AC4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.7265625" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.26953125" style="139" hidden="1" customWidth="1"/>
@@ -31777,26 +31759,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="31bae7fc-a932-48d2-a4fd-52f4a9d31701" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100151DCF064A99D441887C557583945FE2" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="37471ec268efa06fb30c57d33270148f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446" xmlns:ns3="31bae7fc-a932-48d2-a4fd-52f4a9d31701" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46658c2591ee73c71b541e67d9286acd" ns2:_="" ns3:_="">
     <xsd:import namespace="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446"/>
@@ -31997,10 +31959,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="31bae7fc-a932-48d2-a4fd-52f4a9d31701" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EE3C7B-0018-43F4-8F80-86D6B3D880A6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E994A4C0-B8D6-4654-896B-8A5B6E995AE8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446"/>
+    <ds:schemaRef ds:uri="31bae7fc-a932-48d2-a4fd-52f4a9d31701"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -32017,20 +32010,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E994A4C0-B8D6-4654-896B-8A5B6E995AE8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EE3C7B-0018-43F4-8F80-86D6B3D880A6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446"/>
-    <ds:schemaRef ds:uri="31bae7fc-a932-48d2-a4fd-52f4a9d31701"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>